--- a/Document/강동민/기획서/시스템 기획서/스폰 시스템_강동민.xlsx
+++ b/Document/강동민/기획서/시스템 기획서/스폰 시스템_강동민.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>스폰 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -213,42 +213,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 특정 횟수만큼 몬스터를 스폰 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 횟수가 끝날때 까지 계속 스폰함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스폰되는 몬스터의 정보는 몬스터 스폰 테이블에서 받아옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 특정 횟수만큼 스폰하면 스폰이 중지됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 처음 스폰 될때 전체 몬스터 / 2[예: 100/2 = 50] 만큼 소환되며 몬스터 테이블에서 정보를 받아옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 2단계에 나눠서 스폰되며 2가지 조건중 하나만 달성되면 2번째 소환이됨.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 2단게전에 전체중 제한 시간 / 3 [예: 3분/3 = 1분] 만큼 지나게 되면 2단계가 시작됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 1단계까지 스폰된 몬스터 중 20%만 남았을 경우 2단계가 시작됨. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 제한 스폰은 2단계 이상 존재하지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 스폰자리에 캐릭터나 몬스터가 있다면 대상을 옆으로 옴겨줌.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -413,35 +385,91 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5. 생성할 스폰 지점</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>위치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6. 단계별  생성 수량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰되는 몬스터의 정보는 몬스터 데이터에서 받아옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 제한 스폰은 2단계 이상 존재하지 않음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 받아온 몬스터는 소환 개수에 맞을 때까지 받아옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 처음 스폰 될때 전체 몬스터 / 2[예: 100/2 = 50] 만큼 소환됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 2단계전에 전체중 제한 시간 / 3 [예: 3분/3 = 1분] 만큼 지나게 되면 2단계가 시작됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 세트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성할 몬스터를 5개 묶어 놓은 세팅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 몬스터 데이터에서 몬스터 세트에 세팅된 몬스터를 받아옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰 지점마다 받아온 몬스터 데이터 를 받아 생성 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 받아온 세트가 다 생성될때 까지 스폰함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰 지점은 5개존재하며 지점 마다 2개의 세팅을 받음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 몬스터 세트는 빠른 스폰 지점부터 채워줌(A:1. 2번째, B:3, 4번째)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 재스폰 시간은 Spawn_Time 에서 받음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 생성할 몬스터의 수와 종류는 미션 데이터에서 받아옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 스폰되는 몬스터를 2분류로 나눈단위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 상대해야하는 대상</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,6 +655,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,8 +667,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2787,12 +2818,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -2802,32 +2833,32 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
@@ -2837,17 +2868,17 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2860,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O46"/>
+  <dimension ref="B2:O50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2880,15 +2911,20 @@
         <v>39</v>
       </c>
     </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L3" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -2896,10 +2932,10 @@
         <v>43</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -2907,149 +2943,161 @@
         <v>44</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>45</v>
       </c>
+      <c r="L7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>14</v>
+        <v>92</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N11" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>51</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>52</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M18" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O18" s="10" t="s">
+      <c r="N20" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L19" s="6" t="s">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M21" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>15</v>
@@ -3057,90 +3105,105 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>42</v>
+      <c r="B22" t="s">
+        <v>47</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="L23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="6" t="s">
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L25" s="12" t="s">
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L26" s="12" t="s">
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
+      <c r="O28" s="6"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
@@ -3153,162 +3216,187 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="5">
-        <v>1</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="5">
-        <v>40</v>
-      </c>
-      <c r="G32" s="5"/>
+      <c r="B32" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="5">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="5">
+        <v>40</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
         <v>2</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="C36" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="5">
         <v>30</v>
       </c>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="5">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="5">
         <v>3</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="C37" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="5">
         <v>20</v>
       </c>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="5">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="5">
         <v>4</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="5">
+      <c r="C38" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="5">
         <v>10</v>
       </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="10" t="s">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
+  <mergeCells count="5">
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3337,7 +3425,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>9</v>
@@ -3386,7 +3474,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>9</v>
@@ -3444,7 +3532,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>9</v>
@@ -3502,7 +3590,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>9</v>

--- a/Document/강동민/기획서/시스템 기획서/스폰 시스템_강동민.xlsx
+++ b/Document/강동민/기획서/시스템 기획서/스폰 시스템_강동민.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\강동민\기획서\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\강동민\기획서\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1457E294-E8CD-42A9-AC6E-48AF239674D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="97">
   <si>
     <t>스폰 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -213,14 +214,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 2단계에 나눠서 스폰되며 2가지 조건중 하나만 달성되면 2번째 소환이됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 1단계까지 스폰된 몬스터 중 20%만 남았을 경우 2단계가 시작됨. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 스폰자리에 캐릭터나 몬스터가 있다면 대상을 옆으로 옴겨줌.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -337,54 +330,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4. 생성할 몬스터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>명칭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>근거리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>근거리 강화형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리 강화형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>근거리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원거리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6. 단계별  생성 수량</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -401,22 +350,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 제한 스폰은 2단계 이상 존재하지 않음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 받아온 몬스터는 소환 개수에 맞을 때까지 받아옴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 처음 스폰 될때 전체 몬스터 / 2[예: 100/2 = 50] 만큼 소환됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 2단계전에 전체중 제한 시간 / 3 [예: 3분/3 = 1분] 만큼 지나게 되면 2단계가 시작됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터 세트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -433,18 +366,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - 받아온 세트가 다 생성될때 까지 스폰함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 스폰 지점은 5개존재하며 지점 마다 2개의 세팅을 받음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  - 몬스터 세트는 빠른 스폰 지점부터 채워줌(A:1. 2번째, B:3, 4번째)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  - 재스폰 시간은 Spawn_Time 에서 받음.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -470,13 +391,37 @@
   </si>
   <si>
     <t>유저가 상대해야하는 대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 임시 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 몬스터 세트에서 받아온 몬스터의 수를 저정하고 스폰지점으로 나눠 생성함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 몬스터 세트에서 5마리씩 세팅되있는 몬스터를 Monster_Spawn만큼 받아옴.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 몬스터는 미리 받아생성하고 모든 스폰 지점에 순차적으로 스폰함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 스폰지점마다 1마리씩 생성하고 재스폰 시간후 다시 생성함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,7 +551,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -652,11 +597,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,9 +610,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,7 +646,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -771,7 +719,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="직사각형 35"/>
+        <xdr:cNvPr id="36" name="직사각형 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -985,7 +939,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="직사각형 36"/>
+        <xdr:cNvPr id="37" name="직사각형 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1153,7 +1113,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="직사각형 37"/>
+        <xdr:cNvPr id="38" name="직사각형 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1359,7 +1325,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="직사각형 38"/>
+        <xdr:cNvPr id="39" name="직사각형 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1527,7 +1499,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="직선 화살표 연결선 39"/>
+        <xdr:cNvPr id="40" name="직선 화살표 연결선 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="3"/>
           <a:endCxn id="36" idx="1"/>
@@ -1577,7 +1555,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="직사각형 40"/>
+        <xdr:cNvPr id="41" name="직사각형 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1791,7 +1775,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="직사각형 41"/>
+        <xdr:cNvPr id="42" name="직사각형 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1959,7 +1949,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="직선 화살표 연결선 42"/>
+        <xdr:cNvPr id="43" name="직선 화살표 연결선 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="36" idx="3"/>
           <a:endCxn id="41" idx="1"/>
@@ -2009,7 +2005,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="직사각형 43"/>
+        <xdr:cNvPr id="44" name="직사각형 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2204,7 +2206,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="직사각형 44"/>
+        <xdr:cNvPr id="45" name="직사각형 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2372,7 +2380,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="직선 화살표 연결선 45"/>
+        <xdr:cNvPr id="46" name="직선 화살표 연결선 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2669,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2794,7 +2808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2818,12 +2832,12 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -2833,32 +2847,32 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
@@ -2868,17 +2882,17 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2890,11 +2904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:O50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2913,7 +2927,7 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L3" s="4" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
@@ -2921,10 +2935,10 @@
         <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -2932,10 +2946,10 @@
         <v>43</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -2943,10 +2957,10 @@
         <v>44</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -2954,41 +2968,41 @@
         <v>45</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L8" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>9</v>
@@ -2999,37 +3013,37 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N14" s="5"/>
     </row>
@@ -3038,61 +3052,55 @@
         <v>94</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="N16" s="5"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="O20" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
       <c r="L21" s="6" t="s">
         <v>10</v>
       </c>
@@ -3105,9 +3113,6 @@
       <c r="O21" s="6"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
       <c r="L22" s="12" t="s">
         <v>11</v>
       </c>
@@ -3120,9 +3125,6 @@
       <c r="O22" s="6"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
       <c r="L23" s="12" t="s">
         <v>29</v>
       </c>
@@ -3163,7 +3165,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>19</v>
@@ -3178,7 +3180,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>20</v>
@@ -3223,7 +3225,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -3237,21 +3239,15 @@
       <c r="O33"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="17"/>
+      <c r="B34" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="E34" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L34"/>
       <c r="M34"/>
@@ -3259,144 +3255,132 @@
       <c r="O34"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="5">
-        <v>1</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="5">
-        <v>40</v>
-      </c>
-      <c r="G35" s="5"/>
+      <c r="B35" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="5">
+        <v>4</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="N35"/>
+      <c r="O35"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="5">
-        <v>2</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="B36" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="5">
         <v>30</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="N36"/>
+      <c r="O36"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="5">
-        <v>3</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="5">
+      <c r="B37" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="5"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="5">
+        <v>180</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="N37"/>
+      <c r="O37"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="5">
-        <v>4</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="5">
-        <v>10</v>
-      </c>
-      <c r="G38" s="5"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="N38"/>
+      <c r="O38"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="16" t="s">
-        <v>89</v>
+      <c r="B50" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3405,7 +3389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B25:E47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3425,7 +3409,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>9</v>
@@ -3474,7 +3458,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>9</v>
@@ -3532,7 +3516,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>9</v>
@@ -3590,7 +3574,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>9</v>
